--- a/Header/ProductsList_STM8.xlsx
+++ b/Header/ProductsList_STM8.xlsx
@@ -1352,7 +1352,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>898200</xdr:colOff>
+      <xdr:colOff>897840</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
@@ -1368,7 +1368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="898200" cy="601920"/>
+          <a:ext cx="897840" cy="601920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:AE144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:AE144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14968,7 +14968,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A6:AE144 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
